--- a/changes/fal-handguards.xlsx
+++ b/changes/fal-handguards.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yifan\Documents\deadline-balancing\changes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5E344A1-8177-46E3-8231-8C350CEC1600}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6174BC5-9A53-406A-BCBA-F2420E9A7228}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{87D67C0C-0074-437F-B5AF-40C042633E16}"/>
   </bookViews>
@@ -548,7 +548,7 @@
   <dimension ref="A1:O46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P7" sqref="P7"/>
+      <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -625,6 +625,9 @@
       <c r="F3">
         <v>-16</v>
       </c>
+      <c r="H3">
+        <v>0.03</v>
+      </c>
       <c r="M3">
         <v>0</v>
       </c>
@@ -815,6 +818,9 @@
       <c r="F7">
         <v>-13</v>
       </c>
+      <c r="H7">
+        <v>0.03</v>
+      </c>
       <c r="M7">
         <v>750</v>
       </c>
@@ -921,6 +927,9 @@
       </c>
       <c r="F10">
         <v>-8</v>
+      </c>
+      <c r="H10">
+        <v>0.03</v>
       </c>
       <c r="M10">
         <v>2000</v>
